--- a/TEST/TableTest/dt_customdatatable_custom_table_entry.xlsx
+++ b/TEST/TableTest/dt_customdatatable_custom_table_entry.xlsx
@@ -30,34 +30,34 @@
     <t>%</t>
   </si>
   <si>
-    <t>szy09jm7441v72z</t>
-  </si>
-  <si>
-    <t>923j70jk8not2ln</t>
-  </si>
-  <si>
-    <t>n7b246849366183</t>
-  </si>
-  <si>
-    <t>qahne7a45ei9621</t>
+    <t>73fs081nhv055u0</t>
+  </si>
+  <si>
+    <t>05tn12346674wi7</t>
+  </si>
+  <si>
+    <t>p5na3s94e2ijfgo</t>
+  </si>
+  <si>
+    <t>w02zgp2yu6b38jx</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>04z8ki4985x460s</t>
-  </si>
-  <si>
-    <t>995p87q0iwv36fr</t>
-  </si>
-  <si>
-    <t>m74910w609o38ja</t>
+    <t>v244r554zmm7kod</t>
+  </si>
+  <si>
+    <t>13nsxt88bilr7tl</t>
+  </si>
+  <si>
+    <t>fx854r1g8ifa41g</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>yz3i4ldz6015p2y</t>
+    <t>i998xo071qf7xdk</t>
   </si>
   <si>
     <t>T3</t>
@@ -161,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -169,26 +169,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Gulliver"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Gulliver"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Gulliver"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Gulliver"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,7 +212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF20B2AA" tint="0.6"/>
+        <fgColor rgb="FFB0C4DE" tint="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -227,36 +222,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500" tint="0.7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4500" tint="0.9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFAFA" tint="0.2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4682B4" tint="0.8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3" tint="0.8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB0C4DE" tint="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB0C4DE" tint="0.4"/>
       </patternFill>
     </fill>
@@ -272,54 +247,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF708090" tint="0.4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF778899" tint="0.4"/>
+        <fgColor rgb="FF708090" tint="0.8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF778899" tint="0.9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF66CDAA" tint="0"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF66CDAA" tint="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="FFFF4500" tint="0"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFFF4500" tint="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF4682B4" tint="0"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF4682B4" tint="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -335,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,49 +291,46 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="9" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="7" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,7 +376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1">
+    <row r="3" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -445,39 +384,39 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>267</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="15" customHeight="1" s="8" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>22</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>0.073333333333333334</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>34</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.11333333333333333</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9" customFormat="1">
+    <row r="7" ht="15" customHeight="1" s="8" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -488,40 +427,40 @@
         <v>0.65666666666666662</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>204</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>0.68</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="15" customHeight="1" s="8" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>61</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>0.20333333333333334</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="9" customFormat="1">
+    <row r="11" ht="15" customHeight="1" s="8" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -532,18 +471,18 @@
         <v>0.52666666666666662</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1">
-      <c r="A12" s="10" t="s">
+    <row r="12" ht="15" customHeight="1" s="6" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>123</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="9" customFormat="1">
+    <row r="13" ht="15" customHeight="1" s="8" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -554,7 +493,7 @@
         <v>0.44666666666666666</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="11" customFormat="1">
+    <row r="14" ht="15" customHeight="1" s="10" customFormat="1">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
@@ -601,29 +540,29 @@
     <col min="5" max="5" width="180" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="13" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="18" customHeight="1" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" s="14" customFormat="1">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" s="13" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" s="5" customFormat="1">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -634,92 +573,92 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="18" customHeight="1" s="14" customFormat="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" ht="18" customHeight="1" s="13" customFormat="1">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" s="13" customFormat="1">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" s="15" customFormat="1">
-      <c r="A7" s="15" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" s="14" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="15" customHeight="1" s="8" customFormat="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -737,82 +676,82 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" ht="25" customHeight="1" s="16" customFormat="1">
-      <c r="A13" s="16" t="s">
+    <row r="13" ht="25" customHeight="1" s="15" customFormat="1">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" s="17" customFormat="1">
-      <c r="A14" s="17" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="16" customFormat="1">
+      <c r="A14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="28" customHeight="1" s="18" customFormat="1">
-      <c r="A15" s="18" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" ht="28" customHeight="1" s="17" customFormat="1">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" ht="28" customHeight="1" s="19" customFormat="1">
-      <c r="A16" s="19" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" ht="28" customHeight="1" s="18" customFormat="1">
+      <c r="A16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" ht="28" customHeight="1" s="18" customFormat="1">
-      <c r="A17" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" ht="28" customHeight="1" s="17" customFormat="1">
+      <c r="A17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" ht="28" customHeight="1" s="19" customFormat="1">
-      <c r="A18" s="19" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="28" customHeight="1" s="18" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" ht="28" customHeight="1" s="18" customFormat="1">
-      <c r="A19" s="18" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" ht="28" customHeight="1" s="17" customFormat="1">
+      <c r="A19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
   </sheetData>
   <mergeCells>
